--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -751,10 +751,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:B119"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1714,6 +1714,14 @@
         <v>5924</v>
       </c>
     </row>
+    <row r="120" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
+        <v>44866</v>
+      </c>
+      <c r="B120" s="5">
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -754,7 +754,7 @@
   <dimension ref="A1:B120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1719,7 +1719,7 @@
         <v>44866</v>
       </c>
       <c r="B120" s="5">
-        <v>288</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -1719,7 +1719,7 @@
         <v>44866</v>
       </c>
       <c r="B120" s="5">
-        <v>378</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>

--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -1719,7 +1719,7 @@
         <v>44866</v>
       </c>
       <c r="B120" s="5">
-        <v>580</v>
+        <v>1824</v>
       </c>
     </row>
   </sheetData>

--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -1719,7 +1719,7 @@
         <v>44866</v>
       </c>
       <c r="B120" s="5">
-        <v>1824</v>
+        <v>1968</v>
       </c>
     </row>
   </sheetData>

--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -1719,7 +1719,7 @@
         <v>44866</v>
       </c>
       <c r="B120" s="5">
-        <v>1968</v>
+        <v>2013</v>
       </c>
     </row>
   </sheetData>

--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -1719,7 +1719,7 @@
         <v>44866</v>
       </c>
       <c r="B120" s="5">
-        <v>2013</v>
+        <v>2033</v>
       </c>
     </row>
   </sheetData>

--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -1719,7 +1719,7 @@
         <v>44866</v>
       </c>
       <c r="B120" s="5">
-        <v>2033</v>
+        <v>2149</v>
       </c>
     </row>
   </sheetData>

--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -1719,7 +1719,7 @@
         <v>44866</v>
       </c>
       <c r="B120" s="5">
-        <v>2149</v>
+        <v>2289</v>
       </c>
     </row>
   </sheetData>

--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -751,10 +751,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:B120"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1722,6 +1722,14 @@
         <v>2289</v>
       </c>
     </row>
+    <row r="121" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="6">
+        <v>44896</v>
+      </c>
+      <c r="B121" s="5">
+        <v>3710</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -1727,7 +1727,7 @@
         <v>44896</v>
       </c>
       <c r="B121" s="5">
-        <v>3710</v>
+        <v>5124</v>
       </c>
     </row>
   </sheetData>

--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -1727,7 +1727,7 @@
         <v>44896</v>
       </c>
       <c r="B121" s="5">
-        <v>5124</v>
+        <v>6900</v>
       </c>
     </row>
   </sheetData>

--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -1727,7 +1727,7 @@
         <v>44896</v>
       </c>
       <c r="B121" s="5">
-        <v>6900</v>
+        <v>8632</v>
       </c>
     </row>
   </sheetData>

--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -1727,7 +1727,7 @@
         <v>44896</v>
       </c>
       <c r="B121" s="5">
-        <v>8632</v>
+        <v>28463</v>
       </c>
     </row>
   </sheetData>

--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -1727,7 +1727,7 @@
         <v>44896</v>
       </c>
       <c r="B121" s="5">
-        <v>28463</v>
+        <v>28867</v>
       </c>
     </row>
   </sheetData>

--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -751,10 +751,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:B121"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1730,6 +1730,14 @@
         <v>28867</v>
       </c>
     </row>
+    <row r="122" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="6">
+        <v>44927</v>
+      </c>
+      <c r="B122" s="5">
+        <v>30260</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -1735,7 +1735,7 @@
         <v>44927</v>
       </c>
       <c r="B122" s="5">
-        <v>30260</v>
+        <v>37678</v>
       </c>
     </row>
   </sheetData>

--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -1735,7 +1735,7 @@
         <v>44927</v>
       </c>
       <c r="B122" s="5">
-        <v>37678</v>
+        <v>50865</v>
       </c>
     </row>
   </sheetData>

--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -751,10 +751,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:B122"/>
+  <dimension ref="A1:B123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1738,6 +1738,14 @@
         <v>50865</v>
       </c>
     </row>
+    <row r="123" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="6">
+        <v>44958</v>
+      </c>
+      <c r="B123" s="5">
+        <v>49826</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -1743,7 +1743,7 @@
         <v>44958</v>
       </c>
       <c r="B123" s="5">
-        <v>49826</v>
+        <v>51020</v>
       </c>
     </row>
   </sheetData>

--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -751,10 +751,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:B123"/>
+  <dimension ref="A1:B124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1746,6 +1746,14 @@
         <v>51020</v>
       </c>
     </row>
+    <row r="124" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="6">
+        <v>44986</v>
+      </c>
+      <c r="B124" s="5">
+        <v>28739</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -751,10 +751,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:B124"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1754,6 +1754,14 @@
         <v>28739</v>
       </c>
     </row>
+    <row r="125" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="6">
+        <v>45017</v>
+      </c>
+      <c r="B125" s="5">
+        <v>6418.67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -751,10 +751,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1759,7 +1759,15 @@
         <v>45017</v>
       </c>
       <c r="B125" s="5">
-        <v>6418.67</v>
+        <v>6505</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="6">
+        <v>45047</v>
+      </c>
+      <c r="B126" s="5">
+        <v>794</v>
       </c>
     </row>
   </sheetData>

--- a/defectura.xlsx
+++ b/defectura.xlsx
@@ -751,10 +751,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:B126"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1767,7 +1767,31 @@
         <v>45047</v>
       </c>
       <c r="B126" s="5">
-        <v>794</v>
+        <v>836</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="6">
+        <v>45078</v>
+      </c>
+      <c r="B127" s="5">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="6">
+        <v>45108</v>
+      </c>
+      <c r="B128" s="5">
+        <v>7908</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="6">
+        <v>45139</v>
+      </c>
+      <c r="B129" s="5">
+        <v>2232</v>
       </c>
     </row>
   </sheetData>
